--- a/Excel Files/Scenario 13/TC002/13.0 - TC2.1 - Create Port Master.xlsx
+++ b/Excel Files/Scenario 13/TC002/13.0 - TC2.1 - Create Port Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\TC002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B805F5-6808-4E29-9F51-4DAEB5A5A5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F857211-A9F1-4438-B19F-E94232FEBB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15090" yWindow="2865" windowWidth="15375" windowHeight="7725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLF060" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>TFTESTTHT</t>
+    <t>TS4TESTTHT</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1417,9 +1417,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,19 +1564,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA4A15D-D5FF-4623-8D15-E3239C5971E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B96735-9958-4663-82D6-B87381BCB090}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1597,9 +1596,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B96735-9958-4663-82D6-B87381BCB090}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA4A15D-D5FF-4623-8D15-E3239C5971E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>